--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63B8AC-4B74-4DF5-8254-61B553177BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9BF1D-0376-4BCC-A4F6-E32B04900A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E77F8C2D-3581-48D5-ABBE-62930E5EFF16}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>오브젝트 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -229,6 +229,18 @@
   </si>
   <si>
     <t>안 쓰는걸로 ㅇㅇ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7월 중말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8월 초중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제작 스킬트리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +248,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,8 +264,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +311,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -325,16 +358,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -346,102 +414,10 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -453,7 +429,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,55 +457,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -537,6 +480,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -852,83 +816,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79B1BCEF-9BE7-4F3D-B23B-A06DC61D9C3B}">
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:AC41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T43" sqref="T43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.25" customWidth="1"/>
+    <col min="26" max="26" width="37.25" customWidth="1"/>
+    <col min="27" max="27" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:20">
+      <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="M1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="N1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="O1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="R1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="S1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -938,194 +910,234 @@
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
-      <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="R3" s="8"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="22"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="R4" s="8"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="D4" s="1"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="23"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="21"/>
+      <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="22"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="R7" s="8"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="R8" s="8"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="R9" s="8"/>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:20" hidden="1">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="R10" s="8"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="R11" s="8"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="16" t="s">
+      <c r="E11" s="3"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="S18" s="2" t="s">
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="T12" s="7"/>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="18" spans="1:29">
+      <c r="Y18" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="T18" s="2"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="S19" t="s">
+      <c r="Z18" s="2"/>
+    </row>
+    <row r="19" spans="1:29" ht="33">
+      <c r="Y19" t="s">
         <v>31</v>
       </c>
-      <c r="T19" s="27" t="s">
+      <c r="Z19" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="T20" s="26" t="s">
+      <c r="Z20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="U20" s="26" t="s">
+      <c r="AA20" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="Z21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29">
       <c r="A22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="T22" s="2" t="s">
+      <c r="Z22" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="T27" t="s">
+    <row r="27" spans="1:29">
+      <c r="Z27" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="T28" t="s">
+    <row r="28" spans="1:29">
+      <c r="Z28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="T32" t="s">
+    <row r="32" spans="1:29">
+      <c r="Z32" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T33" t="s">
+    <row r="33" spans="26:26">
+      <c r="Z33" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T34" t="s">
+    <row r="34" spans="26:26">
+      <c r="Z34" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T35" t="s">
+    <row r="35" spans="26:26">
+      <c r="Z35" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T36" t="s">
+    <row r="36" spans="26:26">
+      <c r="Z36" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T37" t="s">
+    <row r="37" spans="26:26">
+      <c r="Z37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T39" t="s">
+    <row r="39" spans="26:26">
+      <c r="Z39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T40" t="s">
+    <row r="40" spans="26:26">
+      <c r="Z40" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="41" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T41" t="s">
+    <row r="41" spans="26:26">
+      <c r="Z41" t="s">
         <v>48</v>
       </c>
     </row>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9BF1D-0376-4BCC-A4F6-E32B04900A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B260F-255A-4114-B3CF-2569F1AFE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E77F8C2D-3581-48D5-ABBE-62930E5EFF16}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>오브젝트 제작</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,18 @@
   </si>
   <si>
     <t>제작 스킬트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자기 분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +292,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,8 +329,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -358,8 +376,48 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right style="thin">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -367,58 +425,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -429,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,30 +481,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
@@ -481,25 +489,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +884,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -831,7 +896,7 @@
     <col min="27" max="27" width="28.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" ht="17.25" thickBot="1">
       <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
@@ -891,157 +956,340 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
       <c r="F2" s="19"/>
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="6"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="20"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="T3" s="7"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="T4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="23"/>
-      <c r="T5" s="7"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="22"/>
-      <c r="T6" s="7"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="T7" s="7"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="T8" s="7"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="22"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="T9" s="7"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="22"/>
     </row>
     <row r="10" spans="1:20" hidden="1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="T10" s="7"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="22"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="T11" s="7"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="T12" s="7"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row r="15" spans="1:20" ht="17.25" thickBot="1">
+      <c r="A15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="31"/>
     </row>
     <row r="18" spans="1:29">
       <c r="Y18" s="2" t="s">
@@ -1049,11 +1297,11 @@
       </c>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:29" ht="33">
+    <row r="19" spans="1:29">
       <c r="Y19" t="s">
         <v>31</v>
       </c>
-      <c r="Z19" s="16" t="s">
+      <c r="Z19" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1061,14 +1309,14 @@
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z20" s="15" t="s">
+      <c r="Z20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AA20" s="15" t="s">
+      <c r="AA20" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="AB20" s="15"/>
-      <c r="AC20" s="15"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
     </row>
     <row r="21" spans="1:29">
       <c r="A21" s="1" t="s">
@@ -1084,6 +1332,11 @@
       </c>
       <c r="Z22" s="2" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:29">

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448B260F-255A-4114-B3CF-2569F1AFE4E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494348A-62E5-4E07-ADFD-17F0D0B98DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E77F8C2D-3581-48D5-ABBE-62930E5EFF16}"/>
   </bookViews>
@@ -461,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -489,28 +489,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -558,13 +543,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -884,7 +872,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -956,340 +944,196 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="20"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="22"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="22"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="22"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="22"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="11"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="30"/>
+      <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="22"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="T7" s="17"/>
     </row>
     <row r="8" spans="1:20">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="22"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="22"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="K9" s="1"/>
+      <c r="T9" s="17"/>
     </row>
     <row r="10" spans="1:20" hidden="1">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="22"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="T10" s="17"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="22"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="22"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="T12" s="17"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="22"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="T13" s="17"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="22"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" ht="17.25" thickBot="1">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="31"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="26"/>
     </row>
     <row r="18" spans="1:29">
       <c r="Y18" s="2" t="s">

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9494348A-62E5-4E07-ADFD-17F0D0B98DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDB29A-61DD-40AD-A878-6AAFC3F56AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E77F8C2D-3581-48D5-ABBE-62930E5EFF16}"/>
   </bookViews>
@@ -872,7 +872,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1041,6 +1041,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
       <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20">
@@ -1074,6 +1075,7 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
       <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20">
@@ -1128,7 +1130,7 @@
       <c r="L15" s="24"/>
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="24"/>
+      <c r="O15" s="25"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CDB29A-61DD-40AD-A878-6AAFC3F56AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C447BEF-C890-4104-8508-255554D54112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E77F8C2D-3581-48D5-ABBE-62930E5EFF16}"/>
   </bookViews>
@@ -461,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,6 +553,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,7 +875,7 @@
   <dimension ref="A1:AC41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -961,7 +964,7 @@
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
@@ -974,6 +977,8 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
       <c r="T3" s="17"/>
     </row>
     <row r="4" spans="1:20">
@@ -986,6 +991,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
+      <c r="P4" s="1"/>
       <c r="T4" s="17"/>
     </row>
     <row r="5" spans="1:20">
@@ -1003,6 +1009,7 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
+      <c r="P5" s="3"/>
       <c r="T5" s="17"/>
     </row>
     <row r="6" spans="1:20">
@@ -1019,6 +1026,8 @@
       <c r="I6" s="11"/>
       <c r="L6" s="2"/>
       <c r="M6" s="30"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
       <c r="T6" s="17"/>
     </row>
     <row r="7" spans="1:20">
@@ -1042,6 +1051,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
       <c r="T8" s="17"/>
     </row>
     <row r="9" spans="1:20">
@@ -1076,6 +1086,7 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
       <c r="T11" s="17"/>
     </row>
     <row r="12" spans="1:20">
@@ -1111,6 +1122,7 @@
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="T14" s="17"/>
     </row>
     <row r="15" spans="1:20" ht="17.25" thickBot="1">
@@ -1131,7 +1143,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
-      <c r="P15" s="24"/>
+      <c r="P15" s="25"/>
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
